--- a/participants.xlsx
+++ b/participants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -19,58 +19,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Bruno Lemos</t>
-  </si>
-  <si>
-    <t>bruno.c.lemos@sapo.pt</t>
-  </si>
-  <si>
-    <t>João viegas</t>
-  </si>
-  <si>
-    <t>joao.antonio.viegas@gmail.com</t>
-  </si>
-  <si>
-    <t>João Amaral</t>
-  </si>
-  <si>
-    <t>joaopcamaral@gmail.com</t>
-  </si>
-  <si>
-    <t>Guilherme Claro</t>
-  </si>
-  <si>
-    <t>guilhermeclaro2001@gmail.com</t>
-  </si>
-  <si>
-    <t>Joana Cunha</t>
-  </si>
-  <si>
-    <t>joana21cunha@gmail.com</t>
-  </si>
-  <si>
-    <t>Edgar Sousa</t>
-  </si>
-  <si>
-    <t>edgarsousousa@gmail.com</t>
-  </si>
-  <si>
-    <t>Hugo Domingos</t>
-  </si>
-  <si>
-    <t>hmvdomingos@gmail.com</t>
-  </si>
-  <si>
-    <t>Diana Rocha</t>
-  </si>
-  <si>
-    <t>rochadc00@ua.pt</t>
-  </si>
-  <si>
-    <t>Tiago Marques</t>
-  </si>
-  <si>
-    <t>tamarques@ua.pt</t>
+    <t>teste01</t>
+  </si>
+  <si>
+    <t>teste01@sapo.pt</t>
+  </si>
+  <si>
+    <t>teste02</t>
+  </si>
+  <si>
+    <t>teste02@sapo.pt</t>
+  </si>
+  <si>
+    <t>teste03</t>
+  </si>
+  <si>
+    <t>teste03@sapo.pt</t>
   </si>
 </sst>
 </file>
@@ -377,53 +341,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
